--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_286.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_286.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,642 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09642857142857142</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>[['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(2.6, 4.5)]</t>
+          <t>[('0:00:13.720000', '0:00:18.340000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:43.880000', '0:00:48.020000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1325187969924812</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.414179, 8.780606)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.126439, 9.980952)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:10.240000', '0:00:21.020000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1168831168831169</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>jaah_43</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_39</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09377038486627527</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>[['Bb:7', 'Bb:7', 'Eb', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.74, 21.5)]</t>
+          <t>[['Eb:7', 'Eb:7', 'Ab', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(20.801, 27.165)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:33.270000', '0:01:42.970000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:02:01.030000', '0:02:06.190000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.03317346123101519</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>jaah_79</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_44</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06209677419354839</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
+          <t>[['Bb:maj6', 'F:7', 'Bb'], ['F:7', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(31.89, 34.57)]</t>
+          <t>[['Db:maj6', 'Ab:7', 'Db'], ['Ab:7', 'Db', 'Db']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(44.74, 47.14)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:20.690000', '0:00:22.320000'), ('0:00:10.860000', '0:00:14.130000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:45.740000', '0:00:48.870000'), ('0:00:46.990000', '0:00:49.500000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_46</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1620967741935484</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:7', 'E:7']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1916666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Eb:7', 'Bb:7']]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(29.7717, 35.28644)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(15.47, 20.95)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:04:11.500000', '0:04:15.380000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C', 'G', 'D']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(57.42, 69.44)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.102281, 24.401147)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2873563218390804</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(44.16, 58.08)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(22.3, 49.66)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['D', 'G/5', 'D', 'G/5', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[['C', 'F', 'C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(132.3, 136.56)]</t>
+          <t>[('0:00:20.432000', '0:00:30.105000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:16.179070', '0:00:27.510408')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C:maj', 'F:maj/A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.68, 17.36)]</t>
+          <t>[('0:00:28.450816', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(47.02, 55.76)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.38, 25.18)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.606060606060606</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
+          <t>[['G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(23.04, 32.8)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[('0:01:12.272131', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1144230769230769</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.98, 20.58)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(55.46, 59.63)]</t>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_79</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0447054698457223</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb:7/b7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.604557, 14.675034)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(14.13, 15.8)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1267857142857143</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb', 'F'], ['Eb/5', 'Bb', 'Bb'], ['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D'], ['C', 'G', 'G'], ['C', 'D', 'G']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(29.719863, 35.722222), (8.624535, 15.172562), (44.917324, 48.272607)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(63.524557, 70.536984), (8.504874, 12.022698), (4.987052, 7.668956)]</t>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(120.4, 123.78)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(24.52, 54.82)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
